--- a/Code/Results/Cases/Case_0_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.622833628740273</v>
+        <v>5.557378622606144</v>
       </c>
       <c r="D2">
-        <v>4.129281688915544</v>
+        <v>6.406566698564359</v>
       </c>
       <c r="E2">
-        <v>9.475512366684878</v>
+        <v>12.53289745328044</v>
       </c>
       <c r="F2">
-        <v>38.3264470354911</v>
+        <v>46.378627352927</v>
       </c>
       <c r="G2">
-        <v>2.085693029287913</v>
+        <v>3.72147277115217</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.24942876200958</v>
+        <v>32.71530555892914</v>
       </c>
       <c r="J2">
-        <v>6.718426046736608</v>
+        <v>10.41249716900742</v>
       </c>
       <c r="K2">
-        <v>25.0322436627742</v>
+        <v>22.27142012897855</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.32185401771297</v>
+        <v>19.37751929838118</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.666168273669716</v>
+        <v>5.565838940101819</v>
       </c>
       <c r="D3">
-        <v>3.968688716759673</v>
+        <v>6.390393480460238</v>
       </c>
       <c r="E3">
-        <v>9.088288131443042</v>
+        <v>12.49979517383337</v>
       </c>
       <c r="F3">
-        <v>36.86465564098513</v>
+        <v>46.27821239909783</v>
       </c>
       <c r="G3">
-        <v>2.09762475443775</v>
+        <v>3.725632090746696</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.33761374194076</v>
+        <v>32.67285520587767</v>
       </c>
       <c r="J3">
-        <v>6.592316583601166</v>
+        <v>10.42335079099023</v>
       </c>
       <c r="K3">
-        <v>23.32783764737291</v>
+        <v>21.88596838644426</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.64140942989514</v>
+        <v>19.45890956508108</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.692874664991973</v>
+        <v>5.571260976727778</v>
       </c>
       <c r="D4">
-        <v>3.868081755549312</v>
+        <v>6.381128704289981</v>
       </c>
       <c r="E4">
-        <v>8.849912743265975</v>
+        <v>12.48208417343762</v>
       </c>
       <c r="F4">
-        <v>35.98970744095039</v>
+        <v>46.23045381635081</v>
       </c>
       <c r="G4">
-        <v>2.105096610709479</v>
+        <v>3.728316095681631</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.796913745856</v>
+        <v>32.65642392917027</v>
       </c>
       <c r="J4">
-        <v>6.519253915518409</v>
+        <v>10.43191938287488</v>
       </c>
       <c r="K4">
-        <v>22.30992859996806</v>
+        <v>21.65196084934779</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.83936498513475</v>
+        <v>19.51094575903455</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.703796909389858</v>
+        <v>5.573528031764074</v>
       </c>
       <c r="D5">
-        <v>3.826628178006133</v>
+        <v>6.377522936581746</v>
       </c>
       <c r="E5">
-        <v>8.752712876401667</v>
+        <v>12.47552810870916</v>
       </c>
       <c r="F5">
-        <v>35.6389838306551</v>
+        <v>46.21448703429792</v>
       </c>
       <c r="G5">
-        <v>2.108181473323413</v>
+        <v>3.729442713293437</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.58141876399593</v>
+        <v>32.65214657785641</v>
       </c>
       <c r="J5">
-        <v>6.49055623239327</v>
+        <v>10.43588928883696</v>
       </c>
       <c r="K5">
-        <v>21.88605837504242</v>
+        <v>21.55739920333044</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.92056496549147</v>
+        <v>19.53267172461789</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.705613306639791</v>
+        <v>5.573907959801817</v>
       </c>
       <c r="D6">
-        <v>3.819718876971153</v>
+        <v>6.376934517024516</v>
       </c>
       <c r="E6">
-        <v>8.736572410694187</v>
+        <v>12.47447952570199</v>
       </c>
       <c r="F6">
-        <v>35.5811030681588</v>
+        <v>46.21204681257926</v>
       </c>
       <c r="G6">
-        <v>2.108696222793152</v>
+        <v>3.729631776069716</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.54592961147373</v>
+        <v>32.65158224242558</v>
       </c>
       <c r="J6">
-        <v>6.485855333307539</v>
+        <v>10.43657734275408</v>
       </c>
       <c r="K6">
-        <v>21.81513328915986</v>
+        <v>21.54174929527755</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.93408280773883</v>
+        <v>19.53631082452302</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.693021789334369</v>
+        <v>5.571291317640463</v>
       </c>
       <c r="D7">
-        <v>3.86752447348129</v>
+        <v>6.381079385518704</v>
       </c>
       <c r="E7">
-        <v>8.848601975951286</v>
+        <v>12.48199307358454</v>
       </c>
       <c r="F7">
-        <v>35.98495366087023</v>
+        <v>46.23022433285585</v>
       </c>
       <c r="G7">
-        <v>2.105138047949815</v>
+        <v>3.728331156403552</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.79398784413414</v>
+        <v>32.65635645782532</v>
       </c>
       <c r="J7">
-        <v>6.51886256165061</v>
+        <v>10.43197098754911</v>
       </c>
       <c r="K7">
-        <v>22.30424859436543</v>
+        <v>21.65068215535835</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.84045780832873</v>
+        <v>19.51123665146876</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.63776387395485</v>
+        <v>5.560248764541003</v>
       </c>
       <c r="D8">
-        <v>4.074351430733626</v>
+        <v>6.40085344121947</v>
       </c>
       <c r="E8">
-        <v>9.342177449253418</v>
+        <v>12.52094386103263</v>
       </c>
       <c r="F8">
-        <v>37.81780356336343</v>
+        <v>46.34112167967328</v>
       </c>
       <c r="G8">
-        <v>2.089778969868775</v>
+        <v>3.72287996860076</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.93106952334047</v>
+        <v>32.69866760233944</v>
       </c>
       <c r="J8">
-        <v>6.674022738531618</v>
+        <v>10.41584381669688</v>
       </c>
       <c r="K8">
-        <v>24.4259986864977</v>
+        <v>22.13804147590085</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.43173210513516</v>
+        <v>19.40515599326881</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.529482255331285</v>
+        <v>5.540382306902557</v>
       </c>
       <c r="D9">
-        <v>4.462313393621796</v>
+        <v>6.444806252535138</v>
       </c>
       <c r="E9">
-        <v>10.301992188695</v>
+        <v>12.61786349930744</v>
       </c>
       <c r="F9">
-        <v>41.58796257021628</v>
+        <v>46.66864731102498</v>
       </c>
       <c r="G9">
-        <v>2.060646215846787</v>
+        <v>3.713216962623422</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.3131011952401</v>
+        <v>32.8581504670208</v>
       </c>
       <c r="J9">
-        <v>7.014080781831349</v>
+        <v>10.39935914015863</v>
       </c>
       <c r="K9">
-        <v>28.60431740546036</v>
+        <v>23.10921483083354</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.63945754404999</v>
+        <v>19.21339148281083</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.448897467392103</v>
+        <v>5.526854165953184</v>
       </c>
       <c r="D10">
-        <v>4.734815448261004</v>
+        <v>6.480107067672117</v>
       </c>
       <c r="E10">
-        <v>10.99962579311731</v>
+        <v>12.70128051368273</v>
       </c>
       <c r="F10">
-        <v>44.46674669169832</v>
+        <v>46.97584886849857</v>
       </c>
       <c r="G10">
-        <v>2.039575250595195</v>
+        <v>3.706735012936941</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.15961682157798</v>
+        <v>33.0219241168471</v>
       </c>
       <c r="J10">
-        <v>7.2875933356707</v>
+        <v>10.39651367207409</v>
       </c>
       <c r="K10">
-        <v>31.43616111895605</v>
+        <v>23.82470589129908</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.05572565735043</v>
+        <v>19.08226626488034</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.411743715056885</v>
+        <v>5.520927028655699</v>
       </c>
       <c r="D11">
-        <v>4.855837407995326</v>
+        <v>6.496786397332429</v>
       </c>
       <c r="E11">
-        <v>11.31531577231141</v>
+        <v>12.74180194207017</v>
       </c>
       <c r="F11">
-        <v>45.80251508254885</v>
+        <v>47.12986406255506</v>
       </c>
       <c r="G11">
-        <v>2.029991390252576</v>
+        <v>3.703918466402405</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.02262732227245</v>
+        <v>33.1064904038155</v>
       </c>
       <c r="J11">
-        <v>7.417692938333771</v>
+        <v>10.39723631244238</v>
       </c>
       <c r="K11">
-        <v>32.67727627915846</v>
+        <v>24.14910809572487</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.78792199777427</v>
+        <v>19.02470227580847</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.397578049223587</v>
+        <v>5.51871484225228</v>
       </c>
       <c r="D12">
-        <v>4.901233705710535</v>
+        <v>6.503188714144716</v>
       </c>
       <c r="E12">
-        <v>11.43465206083777</v>
+        <v>12.7575089974247</v>
       </c>
       <c r="F12">
-        <v>46.31248427111407</v>
+        <v>47.19021463260532</v>
       </c>
       <c r="G12">
-        <v>2.026355536704716</v>
+        <v>3.702870772766887</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.35301453732059</v>
+        <v>33.13995189821777</v>
       </c>
       <c r="J12">
-        <v>7.467831316902054</v>
+        <v>10.39780016024804</v>
       </c>
       <c r="K12">
-        <v>33.14092116522302</v>
+        <v>24.27167465257711</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.68600331195535</v>
+        <v>19.0032017676841</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.40063359354825</v>
+        <v>5.519189845239573</v>
       </c>
       <c r="D13">
-        <v>4.891476081438686</v>
+        <v>6.501806075711157</v>
       </c>
       <c r="E13">
-        <v>11.40895931269406</v>
+        <v>12.75411021029441</v>
       </c>
       <c r="F13">
-        <v>46.20246130808544</v>
+        <v>47.17712725636662</v>
       </c>
       <c r="G13">
-        <v>2.02713899916403</v>
+        <v>3.703095575061048</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.2816948732525</v>
+        <v>33.13268157960858</v>
       </c>
       <c r="J13">
-        <v>7.456993278791588</v>
+        <v>10.39766581794823</v>
       </c>
       <c r="K13">
-        <v>33.04134122167024</v>
+        <v>24.24529198752564</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.70797906155866</v>
+        <v>19.00781907994132</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.410580381861306</v>
+        <v>5.520744385468318</v>
       </c>
       <c r="D14">
-        <v>4.859580873482505</v>
+        <v>6.497311409679806</v>
       </c>
       <c r="E14">
-        <v>11.32513753522893</v>
+        <v>12.74308695286921</v>
       </c>
       <c r="F14">
-        <v>45.84438479876439</v>
+        <v>47.13478863571384</v>
       </c>
       <c r="G14">
-        <v>2.02969244273551</v>
+        <v>3.703831894537529</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.04973471467417</v>
+        <v>33.10921454109072</v>
       </c>
       <c r="J14">
-        <v>7.421799998183311</v>
+        <v>10.39727688415353</v>
       </c>
       <c r="K14">
-        <v>32.71554493205734</v>
+        <v>24.15919796459271</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.77954838707597</v>
+        <v>19.02292746165022</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.416659737310646</v>
+        <v>5.521700781770657</v>
       </c>
       <c r="D15">
-        <v>4.839987726119494</v>
+        <v>6.494569432783695</v>
       </c>
       <c r="E15">
-        <v>11.27376854659305</v>
+        <v>12.73638185428245</v>
       </c>
       <c r="F15">
-        <v>45.62560600241799</v>
+        <v>47.1091184047033</v>
       </c>
       <c r="G15">
-        <v>2.031255412972063</v>
+        <v>3.704285365298201</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.90812902238066</v>
+        <v>33.0950272685192</v>
       </c>
       <c r="J15">
-        <v>7.400358611083871</v>
+        <v>10.39707644555789</v>
       </c>
       <c r="K15">
-        <v>32.5151738534268</v>
+        <v>24.10642320423225</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.82331476515633</v>
+        <v>19.03222048985356</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.451313499522052</v>
+        <v>5.527246055146943</v>
       </c>
       <c r="D16">
-        <v>4.726846238909163</v>
+        <v>6.479029267363673</v>
       </c>
       <c r="E16">
-        <v>10.97896313396151</v>
+        <v>12.6986835002244</v>
       </c>
       <c r="F16">
-        <v>44.3800067398974</v>
+        <v>46.96606880779262</v>
       </c>
       <c r="G16">
-        <v>2.040201043679318</v>
+        <v>3.706921728620648</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.10370138507102</v>
+        <v>33.01659930544569</v>
       </c>
       <c r="J16">
-        <v>7.279209766654249</v>
+        <v>10.39650705013126</v>
       </c>
       <c r="K16">
-        <v>31.35413921919981</v>
+        <v>23.80347315949011</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.07316675781271</v>
+        <v>19.08606998750145</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.47242856215115</v>
+        <v>5.530705771914693</v>
       </c>
       <c r="D17">
-        <v>4.656675414663662</v>
+        <v>6.469652737761003</v>
       </c>
       <c r="E17">
-        <v>10.79769526917653</v>
+        <v>12.67621085636371</v>
       </c>
       <c r="F17">
-        <v>43.62279970540399</v>
+        <v>46.88195141080875</v>
       </c>
       <c r="G17">
-        <v>2.045684693657448</v>
+        <v>3.70857280132004</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.61627083194833</v>
+        <v>32.9710583113356</v>
       </c>
       <c r="J17">
-        <v>7.206378963450237</v>
+        <v>10.39667451185479</v>
       </c>
       <c r="K17">
-        <v>30.63010756014987</v>
+        <v>23.61725818666944</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.22574187810065</v>
+        <v>19.11963751909108</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.484528421311505</v>
+        <v>5.532717084351817</v>
       </c>
       <c r="D18">
-        <v>4.616038301285219</v>
+        <v>6.464318228164139</v>
       </c>
       <c r="E18">
-        <v>10.69327423739158</v>
+        <v>12.66352802036852</v>
       </c>
       <c r="F18">
-        <v>43.18970848230303</v>
+        <v>46.8349138877943</v>
       </c>
       <c r="G18">
-        <v>2.048839343738776</v>
+        <v>3.709534898525218</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.33805861397406</v>
+        <v>32.94581238937441</v>
       </c>
       <c r="J18">
-        <v>7.165018961231004</v>
+        <v>10.3969606864373</v>
       </c>
       <c r="K18">
-        <v>30.20920045628767</v>
+        <v>23.51005778469931</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.31329850117657</v>
+        <v>19.1391411052513</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.488618224503293</v>
+        <v>5.533401761557568</v>
       </c>
       <c r="D19">
-        <v>4.602232155886999</v>
+        <v>6.462522214976907</v>
       </c>
       <c r="E19">
-        <v>10.65789103715262</v>
+        <v>12.6592757644055</v>
       </c>
       <c r="F19">
-        <v>43.04348040418091</v>
+        <v>46.81921937208506</v>
       </c>
       <c r="G19">
-        <v>2.04990774991587</v>
+        <v>3.709862789253433</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.24422242073267</v>
+        <v>32.93742762579942</v>
       </c>
       <c r="J19">
-        <v>7.151104759043244</v>
+        <v>10.39709018116651</v>
       </c>
       <c r="K19">
-        <v>30.06590972977007</v>
+        <v>23.47374916047849</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.34291437263866</v>
+        <v>19.14577848753878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.47018565488235</v>
+        <v>5.530335269373246</v>
       </c>
       <c r="D20">
-        <v>4.66417394890186</v>
+        <v>6.470644840025725</v>
       </c>
       <c r="E20">
-        <v>10.8170080299785</v>
+        <v>12.67857802969121</v>
       </c>
       <c r="F20">
-        <v>43.70315153210036</v>
+        <v>46.89076684954956</v>
       </c>
       <c r="G20">
-        <v>2.04510093417742</v>
+        <v>3.708395754849435</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.66793499319834</v>
+        <v>32.97580816746071</v>
       </c>
       <c r="J20">
-        <v>7.214076672262032</v>
+        <v>10.39663703447463</v>
       </c>
       <c r="K20">
-        <v>30.70764094333155</v>
+        <v>23.6370917699302</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.20952199199346</v>
+        <v>19.11604388404995</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.407661597759934</v>
+        <v>5.520286905562864</v>
       </c>
       <c r="D21">
-        <v>4.868961030735215</v>
+        <v>6.498629286920865</v>
       </c>
       <c r="E21">
-        <v>11.34976328614576</v>
+        <v>12.74631497793738</v>
       </c>
       <c r="F21">
-        <v>45.94944431757321</v>
+        <v>47.14716967004427</v>
       </c>
       <c r="G21">
-        <v>2.028942674871031</v>
+        <v>3.703615108511926</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.11776707527762</v>
+        <v>33.11606843530276</v>
       </c>
       <c r="J21">
-        <v>7.432112925481865</v>
+        <v>10.39738324701056</v>
       </c>
       <c r="K21">
-        <v>32.81140743411349</v>
+        <v>24.18449434749468</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.75854208722539</v>
+        <v>19.01848170083081</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.366223217440333</v>
+        <v>5.513907788930098</v>
       </c>
       <c r="D22">
-        <v>5.000284028777857</v>
+        <v>6.517419801761447</v>
       </c>
       <c r="E22">
-        <v>11.6967703891724</v>
+        <v>12.79269377049733</v>
       </c>
       <c r="F22">
-        <v>47.44196914062454</v>
+        <v>47.32655315747776</v>
       </c>
       <c r="G22">
-        <v>2.018339562918875</v>
+        <v>3.700600617587044</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.08641105612753</v>
+        <v>33.21611292368517</v>
       </c>
       <c r="J22">
-        <v>7.579734032365576</v>
+        <v>10.39956241518341</v>
       </c>
       <c r="K22">
-        <v>34.14964587781579</v>
+        <v>24.54058303913626</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.46074004889871</v>
+        <v>18.95645353717795</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.38840133921</v>
+        <v>5.517295344134813</v>
       </c>
       <c r="D23">
-        <v>4.93042579425445</v>
+        <v>6.507346134160742</v>
       </c>
       <c r="E23">
-        <v>11.51165567287372</v>
+        <v>12.76775028222931</v>
       </c>
       <c r="F23">
-        <v>46.64297634902294</v>
+        <v>47.22974090588685</v>
       </c>
       <c r="G23">
-        <v>2.024005103446786</v>
+        <v>3.702199491023487</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.56737896071949</v>
+        <v>33.16195451601925</v>
       </c>
       <c r="J23">
-        <v>7.500455041550559</v>
+        <v>10.39824456903529</v>
       </c>
       <c r="K23">
-        <v>33.43859908810394</v>
+        <v>24.35072372039875</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.62002976320264</v>
+        <v>18.98940115846542</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.471199794357441</v>
+        <v>5.530502704164615</v>
       </c>
       <c r="D24">
-        <v>4.660784779533671</v>
+        <v>6.470196135366536</v>
       </c>
       <c r="E24">
-        <v>10.80827737974427</v>
+        <v>12.67750709188873</v>
       </c>
       <c r="F24">
-        <v>43.66681752912538</v>
+        <v>46.88677726809077</v>
       </c>
       <c r="G24">
-        <v>2.045364845022755</v>
+        <v>3.708475757451046</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.64457135921519</v>
+        <v>32.97365784077356</v>
       </c>
       <c r="J24">
-        <v>7.210594949265679</v>
+        <v>10.39665338651925</v>
       </c>
       <c r="K24">
-        <v>30.67260262165734</v>
+        <v>23.62812544279568</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.21685549011346</v>
+        <v>19.11766792724448</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.558871989421962</v>
+        <v>5.545567613402174</v>
       </c>
       <c r="D25">
-        <v>4.359459080482815</v>
+        <v>6.432376467434326</v>
       </c>
       <c r="E25">
-        <v>10.04355927580612</v>
+        <v>12.58947506639407</v>
       </c>
       <c r="F25">
-        <v>40.54936754762748</v>
+        <v>46.56829914222566</v>
       </c>
       <c r="G25">
-        <v>2.068447517415604</v>
+        <v>3.715722017962313</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.65221306300859</v>
+        <v>32.80681001458179</v>
       </c>
       <c r="J25">
-        <v>6.918081411882861</v>
+        <v>10.40219357564587</v>
       </c>
       <c r="K25">
-        <v>27.5171288780876</v>
+        <v>22.84561128688647</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85349963270431</v>
+        <v>19.26354348996357</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.557378622606144</v>
+        <v>3.622833628740543</v>
       </c>
       <c r="D2">
-        <v>6.406566698564359</v>
+        <v>4.129281688915546</v>
       </c>
       <c r="E2">
-        <v>12.53289745328044</v>
+        <v>9.47551236668482</v>
       </c>
       <c r="F2">
-        <v>46.378627352927</v>
+        <v>38.32644703549108</v>
       </c>
       <c r="G2">
-        <v>3.72147277115217</v>
+        <v>2.085693029287911</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.71530555892914</v>
+        <v>26.24942876200955</v>
       </c>
       <c r="J2">
-        <v>10.41249716900742</v>
+        <v>6.718426046736559</v>
       </c>
       <c r="K2">
-        <v>22.27142012897855</v>
+        <v>25.03224366277424</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.37751929838118</v>
+        <v>12.32185401771294</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.565838940101819</v>
+        <v>3.666168273669716</v>
       </c>
       <c r="D3">
-        <v>6.390393480460238</v>
+        <v>3.968688716759674</v>
       </c>
       <c r="E3">
-        <v>12.49979517383337</v>
+        <v>9.088288131443051</v>
       </c>
       <c r="F3">
-        <v>46.27821239909783</v>
+        <v>36.86465564098494</v>
       </c>
       <c r="G3">
-        <v>3.725632090746696</v>
+        <v>2.097624754437749</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.67285520587767</v>
+        <v>25.33761374194062</v>
       </c>
       <c r="J3">
-        <v>10.42335079099023</v>
+        <v>6.592316583601161</v>
       </c>
       <c r="K3">
-        <v>21.88596838644426</v>
+        <v>23.3278376473729</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.45890956508108</v>
+        <v>12.64140942989508</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.571260976727778</v>
+        <v>3.692874664991974</v>
       </c>
       <c r="D4">
-        <v>6.381128704289981</v>
+        <v>3.868081755549319</v>
       </c>
       <c r="E4">
-        <v>12.48208417343762</v>
+        <v>8.84991274326598</v>
       </c>
       <c r="F4">
-        <v>46.23045381635081</v>
+        <v>35.98970744095033</v>
       </c>
       <c r="G4">
-        <v>3.728316095681631</v>
+        <v>2.105096610709343</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.65642392917027</v>
+        <v>24.79691374585597</v>
       </c>
       <c r="J4">
-        <v>10.43191938287488</v>
+        <v>6.519253915518409</v>
       </c>
       <c r="K4">
-        <v>21.65196084934779</v>
+        <v>22.30992859996805</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.51094575903455</v>
+        <v>12.83936498513471</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.573528031764074</v>
+        <v>3.703796909389595</v>
       </c>
       <c r="D5">
-        <v>6.377522936581746</v>
+        <v>3.826628178006187</v>
       </c>
       <c r="E5">
-        <v>12.47552810870916</v>
+        <v>8.752712876401745</v>
       </c>
       <c r="F5">
-        <v>46.21448703429792</v>
+        <v>35.63898383065488</v>
       </c>
       <c r="G5">
-        <v>3.729442713293437</v>
+        <v>2.108181473323281</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.65214657785641</v>
+        <v>24.58141876399578</v>
       </c>
       <c r="J5">
-        <v>10.43588928883696</v>
+        <v>6.49055623239337</v>
       </c>
       <c r="K5">
-        <v>21.55739920333044</v>
+        <v>21.8860583750424</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.53267172461789</v>
+        <v>12.9205649654914</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.573907959801817</v>
+        <v>3.705613306639661</v>
       </c>
       <c r="D6">
-        <v>6.376934517024516</v>
+        <v>3.819718876971166</v>
       </c>
       <c r="E6">
-        <v>12.47447952570199</v>
+        <v>8.736572410694087</v>
       </c>
       <c r="F6">
-        <v>46.21204681257926</v>
+        <v>35.5811030681587</v>
       </c>
       <c r="G6">
-        <v>3.729631776069716</v>
+        <v>2.108696222793152</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.65158224242558</v>
+        <v>24.54592961147367</v>
       </c>
       <c r="J6">
-        <v>10.43657734275408</v>
+        <v>6.485855333307451</v>
       </c>
       <c r="K6">
-        <v>21.54174929527755</v>
+        <v>21.81513328915984</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.53631082452302</v>
+        <v>12.93408280773883</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.571291317640463</v>
+        <v>3.693021789334111</v>
       </c>
       <c r="D7">
-        <v>6.381079385518704</v>
+        <v>3.867524473481404</v>
       </c>
       <c r="E7">
-        <v>12.48199307358454</v>
+        <v>8.848601975951283</v>
       </c>
       <c r="F7">
-        <v>46.23022433285585</v>
+        <v>35.98495366087005</v>
       </c>
       <c r="G7">
-        <v>3.728331156403552</v>
+        <v>2.10513804794968</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.65635645782532</v>
+        <v>24.79398784413402</v>
       </c>
       <c r="J7">
-        <v>10.43197098754911</v>
+        <v>6.518862561650581</v>
       </c>
       <c r="K7">
-        <v>21.65068215535835</v>
+        <v>22.30424859436539</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.51123665146876</v>
+        <v>12.8404578083286</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.560248764541003</v>
+        <v>3.637763873954722</v>
       </c>
       <c r="D8">
-        <v>6.40085344121947</v>
+        <v>4.074351430733722</v>
       </c>
       <c r="E8">
-        <v>12.52094386103263</v>
+        <v>9.342177449253478</v>
       </c>
       <c r="F8">
-        <v>46.34112167967328</v>
+        <v>37.81780356336338</v>
       </c>
       <c r="G8">
-        <v>3.72287996860076</v>
+        <v>2.089778969868644</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.69866760233944</v>
+        <v>25.93106952334041</v>
       </c>
       <c r="J8">
-        <v>10.41584381669688</v>
+        <v>6.67402273853164</v>
       </c>
       <c r="K8">
-        <v>22.13804147590085</v>
+        <v>24.42599868649773</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.40515599326881</v>
+        <v>12.43173210513513</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.540382306902557</v>
+        <v>3.529482255331147</v>
       </c>
       <c r="D9">
-        <v>6.444806252535138</v>
+        <v>4.462313393621828</v>
       </c>
       <c r="E9">
-        <v>12.61786349930744</v>
+        <v>10.30199218869503</v>
       </c>
       <c r="F9">
-        <v>46.66864731102498</v>
+        <v>41.58796257021619</v>
       </c>
       <c r="G9">
-        <v>3.713216962623422</v>
+        <v>2.060646215846788</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.8581504670208</v>
+        <v>28.31310119524004</v>
       </c>
       <c r="J9">
-        <v>10.39935914015863</v>
+        <v>7.014080781831364</v>
       </c>
       <c r="K9">
-        <v>23.10921483083354</v>
+        <v>28.60431740546043</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.21339148281083</v>
+        <v>11.63945754404993</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.526854165953184</v>
+        <v>3.44889746739223</v>
       </c>
       <c r="D10">
-        <v>6.480107067672117</v>
+        <v>4.734815448261003</v>
       </c>
       <c r="E10">
-        <v>12.70128051368273</v>
+        <v>10.9996257931173</v>
       </c>
       <c r="F10">
-        <v>46.97584886849857</v>
+        <v>44.46674669169832</v>
       </c>
       <c r="G10">
-        <v>3.706735012936941</v>
+        <v>2.039575250595058</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.0219241168471</v>
+        <v>30.15961682157798</v>
       </c>
       <c r="J10">
-        <v>10.39651367207409</v>
+        <v>7.287593335670707</v>
       </c>
       <c r="K10">
-        <v>23.82470589129908</v>
+        <v>31.43616111895604</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.08226626488034</v>
+        <v>11.05572565735047</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.520927028655699</v>
+        <v>3.411743715056746</v>
       </c>
       <c r="D11">
-        <v>6.496786397332429</v>
+        <v>4.855837407995359</v>
       </c>
       <c r="E11">
-        <v>12.74180194207017</v>
+        <v>11.31531577231138</v>
       </c>
       <c r="F11">
-        <v>47.12986406255506</v>
+        <v>45.80251508254886</v>
       </c>
       <c r="G11">
-        <v>3.703918466402405</v>
+        <v>2.029991390252446</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.1064904038155</v>
+        <v>31.02262732227245</v>
       </c>
       <c r="J11">
-        <v>10.39723631244238</v>
+        <v>7.417692938333718</v>
       </c>
       <c r="K11">
-        <v>24.14910809572487</v>
+        <v>32.67727627915854</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.02470227580847</v>
+        <v>10.78792199777427</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.51871484225228</v>
+        <v>3.397578049223705</v>
       </c>
       <c r="D12">
-        <v>6.503188714144716</v>
+        <v>4.901233705710483</v>
       </c>
       <c r="E12">
-        <v>12.7575089974247</v>
+        <v>11.43465206083774</v>
       </c>
       <c r="F12">
-        <v>47.19021463260532</v>
+        <v>46.31248427111408</v>
       </c>
       <c r="G12">
-        <v>3.702870772766887</v>
+        <v>2.026355536704719</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.13995189821777</v>
+        <v>31.35301453732059</v>
       </c>
       <c r="J12">
-        <v>10.39780016024804</v>
+        <v>7.467831316901997</v>
       </c>
       <c r="K12">
-        <v>24.27167465257711</v>
+        <v>33.14092116522304</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.0032017676841</v>
+        <v>10.68600331195531</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.519189845239573</v>
+        <v>3.400633593548378</v>
       </c>
       <c r="D13">
-        <v>6.501806075711157</v>
+        <v>4.891476081438677</v>
       </c>
       <c r="E13">
-        <v>12.75411021029441</v>
+        <v>11.40895931269403</v>
       </c>
       <c r="F13">
-        <v>47.17712725636662</v>
+        <v>46.20246130808548</v>
       </c>
       <c r="G13">
-        <v>3.703095575061048</v>
+        <v>2.027138999164037</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.13268157960858</v>
+        <v>31.28169487325251</v>
       </c>
       <c r="J13">
-        <v>10.39766581794823</v>
+        <v>7.45699327879157</v>
       </c>
       <c r="K13">
-        <v>24.24529198752564</v>
+        <v>33.04134122167036</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.00781907994132</v>
+        <v>10.70797906155859</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.520744385468318</v>
+        <v>3.410580381861434</v>
       </c>
       <c r="D14">
-        <v>6.497311409679806</v>
+        <v>4.859580873482471</v>
       </c>
       <c r="E14">
-        <v>12.74308695286921</v>
+        <v>11.3251375352289</v>
       </c>
       <c r="F14">
-        <v>47.13478863571384</v>
+        <v>45.8443847987644</v>
       </c>
       <c r="G14">
-        <v>3.703831894537529</v>
+        <v>2.029692442735243</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.10921454109072</v>
+        <v>31.04973471467417</v>
       </c>
       <c r="J14">
-        <v>10.39727688415353</v>
+        <v>7.421799998183275</v>
       </c>
       <c r="K14">
-        <v>24.15919796459271</v>
+        <v>32.71554493205734</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.02292746165022</v>
+        <v>10.77954838707601</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.521700781770657</v>
+        <v>3.416659737311041</v>
       </c>
       <c r="D15">
-        <v>6.494569432783695</v>
+        <v>4.839987726119411</v>
       </c>
       <c r="E15">
-        <v>12.73638185428245</v>
+        <v>11.273768546593</v>
       </c>
       <c r="F15">
-        <v>47.1091184047033</v>
+        <v>45.62560600241795</v>
       </c>
       <c r="G15">
-        <v>3.704285365298201</v>
+        <v>2.031255412971795</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.0950272685192</v>
+        <v>30.90812902238066</v>
       </c>
       <c r="J15">
-        <v>10.39707644555789</v>
+        <v>7.40035861108389</v>
       </c>
       <c r="K15">
-        <v>24.10642320423225</v>
+        <v>32.51517385342669</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.03222048985356</v>
+        <v>10.8233147651564</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.527246055146943</v>
+        <v>3.451313499522048</v>
       </c>
       <c r="D16">
-        <v>6.479029267363673</v>
+        <v>4.726846238909235</v>
       </c>
       <c r="E16">
-        <v>12.6986835002244</v>
+        <v>10.97896313396156</v>
       </c>
       <c r="F16">
-        <v>46.96606880779262</v>
+        <v>44.38000673989743</v>
       </c>
       <c r="G16">
-        <v>3.706921728620648</v>
+        <v>2.040201043679188</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.01659930544569</v>
+        <v>30.10370138507102</v>
       </c>
       <c r="J16">
-        <v>10.39650705013126</v>
+        <v>7.279209766654275</v>
       </c>
       <c r="K16">
-        <v>23.80347315949011</v>
+        <v>31.35413921919984</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.08606998750145</v>
+        <v>11.07316675781265</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.530705771914693</v>
+        <v>3.472428562151538</v>
       </c>
       <c r="D17">
-        <v>6.469652737761003</v>
+        <v>4.656675414663541</v>
       </c>
       <c r="E17">
-        <v>12.67621085636371</v>
+        <v>10.79769526917654</v>
       </c>
       <c r="F17">
-        <v>46.88195141080875</v>
+        <v>43.62279970540401</v>
       </c>
       <c r="G17">
-        <v>3.70857280132004</v>
+        <v>2.045684693657451</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.9710583113356</v>
+        <v>29.61627083194834</v>
       </c>
       <c r="J17">
-        <v>10.39667451185479</v>
+        <v>7.206378963450274</v>
       </c>
       <c r="K17">
-        <v>23.61725818666944</v>
+        <v>30.63010756014993</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.11963751909108</v>
+        <v>11.22574187810056</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.532717084351817</v>
+        <v>3.484528421311376</v>
       </c>
       <c r="D18">
-        <v>6.464318228164139</v>
+        <v>4.616038301285247</v>
       </c>
       <c r="E18">
-        <v>12.66352802036852</v>
+        <v>10.69327423739155</v>
       </c>
       <c r="F18">
-        <v>46.8349138877943</v>
+        <v>43.18970848230303</v>
       </c>
       <c r="G18">
-        <v>3.709534898525218</v>
+        <v>2.048839343738909</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.94581238937441</v>
+        <v>29.33805861397405</v>
       </c>
       <c r="J18">
-        <v>10.3969606864373</v>
+        <v>7.165018961230967</v>
       </c>
       <c r="K18">
-        <v>23.51005778469931</v>
+        <v>30.20920045628769</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.1391411052513</v>
+        <v>11.31329850117657</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.533401761557568</v>
+        <v>3.488618224503557</v>
       </c>
       <c r="D19">
-        <v>6.462522214976907</v>
+        <v>4.602232155886962</v>
       </c>
       <c r="E19">
-        <v>12.6592757644055</v>
+        <v>10.6578910371526</v>
       </c>
       <c r="F19">
-        <v>46.81921937208506</v>
+        <v>43.04348040418093</v>
       </c>
       <c r="G19">
-        <v>3.709862789253433</v>
+        <v>2.049907749915607</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.93742762579942</v>
+        <v>29.24422242073269</v>
       </c>
       <c r="J19">
-        <v>10.39709018116651</v>
+        <v>7.151104759043196</v>
       </c>
       <c r="K19">
-        <v>23.47374916047849</v>
+        <v>30.06590972977009</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.14577848753878</v>
+        <v>11.34291437263876</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.530335269373246</v>
+        <v>3.470185654882613</v>
       </c>
       <c r="D20">
-        <v>6.470644840025725</v>
+        <v>4.664173948901847</v>
       </c>
       <c r="E20">
-        <v>12.67857802969121</v>
+        <v>10.8170080299785</v>
       </c>
       <c r="F20">
-        <v>46.89076684954956</v>
+        <v>43.70315153210041</v>
       </c>
       <c r="G20">
-        <v>3.708395754849435</v>
+        <v>2.04510093417742</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.97580816746071</v>
+        <v>29.66793499319836</v>
       </c>
       <c r="J20">
-        <v>10.39663703447463</v>
+        <v>7.21407667226206</v>
       </c>
       <c r="K20">
-        <v>23.6370917699302</v>
+        <v>30.70764094333159</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.11604388404995</v>
+        <v>11.2095219919935</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.520286905562864</v>
+        <v>3.407661597759801</v>
       </c>
       <c r="D21">
-        <v>6.498629286920865</v>
+        <v>4.868961030735209</v>
       </c>
       <c r="E21">
-        <v>12.74631497793738</v>
+        <v>11.34976328614574</v>
       </c>
       <c r="F21">
-        <v>47.14716967004427</v>
+        <v>45.94944431757322</v>
       </c>
       <c r="G21">
-        <v>3.703615108511926</v>
+        <v>2.028942674870898</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.11606843530276</v>
+        <v>31.11776707527762</v>
       </c>
       <c r="J21">
-        <v>10.39738324701056</v>
+        <v>7.432112925481839</v>
       </c>
       <c r="K21">
-        <v>24.18449434749468</v>
+        <v>32.81140743411349</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.01848170083081</v>
+        <v>10.75854208722539</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.513907788930098</v>
+        <v>3.366223217440333</v>
       </c>
       <c r="D22">
-        <v>6.517419801761447</v>
+        <v>5.000284028777866</v>
       </c>
       <c r="E22">
-        <v>12.79269377049733</v>
+        <v>11.69677038917243</v>
       </c>
       <c r="F22">
-        <v>47.32655315747776</v>
+        <v>47.4419691406245</v>
       </c>
       <c r="G22">
-        <v>3.700600617587044</v>
+        <v>2.018339562919012</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.21611292368517</v>
+        <v>32.0864110561275</v>
       </c>
       <c r="J22">
-        <v>10.39956241518341</v>
+        <v>7.579734032365604</v>
       </c>
       <c r="K22">
-        <v>24.54058303913626</v>
+        <v>34.14964587781578</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.95645353717795</v>
+        <v>10.46074004889864</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.517295344134813</v>
+        <v>3.388401339210132</v>
       </c>
       <c r="D23">
-        <v>6.507346134160742</v>
+        <v>4.930425794254445</v>
       </c>
       <c r="E23">
-        <v>12.76775028222931</v>
+        <v>11.51165567287372</v>
       </c>
       <c r="F23">
-        <v>47.22974090588685</v>
+        <v>46.64297634902298</v>
       </c>
       <c r="G23">
-        <v>3.702199491023487</v>
+        <v>2.024005103446787</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.16195451601925</v>
+        <v>31.5673789607195</v>
       </c>
       <c r="J23">
-        <v>10.39824456903529</v>
+        <v>7.500455041550537</v>
       </c>
       <c r="K23">
-        <v>24.35072372039875</v>
+        <v>33.43859908810396</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.98940115846542</v>
+        <v>10.62002976320264</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.530502704164615</v>
+        <v>3.471199794357435</v>
       </c>
       <c r="D24">
-        <v>6.470196135366536</v>
+        <v>4.660784779533564</v>
       </c>
       <c r="E24">
-        <v>12.67750709188873</v>
+        <v>10.80827737974424</v>
       </c>
       <c r="F24">
-        <v>46.88677726809077</v>
+        <v>43.66681752912534</v>
       </c>
       <c r="G24">
-        <v>3.708475757451046</v>
+        <v>2.045364845022489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.97365784077356</v>
+        <v>29.64457135921516</v>
       </c>
       <c r="J24">
-        <v>10.39665338651925</v>
+        <v>7.210594949265698</v>
       </c>
       <c r="K24">
-        <v>23.62812544279568</v>
+        <v>30.67260262165731</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.11766792724448</v>
+        <v>11.21685549011352</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.545567613402174</v>
+        <v>3.558871989421951</v>
       </c>
       <c r="D25">
-        <v>6.432376467434326</v>
+        <v>4.359459080482848</v>
       </c>
       <c r="E25">
-        <v>12.58947506639407</v>
+        <v>10.04355927580613</v>
       </c>
       <c r="F25">
-        <v>46.56829914222566</v>
+        <v>40.54936754762744</v>
       </c>
       <c r="G25">
-        <v>3.715722017962313</v>
+        <v>2.068447517415735</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.80681001458179</v>
+        <v>27.65221306300852</v>
       </c>
       <c r="J25">
-        <v>10.40219357564587</v>
+        <v>6.918081411882834</v>
       </c>
       <c r="K25">
-        <v>22.84561128688647</v>
+        <v>27.51712887808774</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.26354348996357</v>
+        <v>11.85349963270421</v>
       </c>
       <c r="O25">
         <v>0</v>
